--- a/data/output/seat_status_updated_classroom_image5.xlsx
+++ b/data/output/seat_status_updated_classroom_image5.xlsx
@@ -507,19 +507,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>660.1056518554688</v>
+        <v>660.105712890625</v>
       </c>
       <c r="B3" t="n">
         <v>785.274658203125</v>
       </c>
       <c r="C3" t="n">
-        <v>703.3245239257812</v>
+        <v>703.3245849609375</v>
       </c>
       <c r="D3" t="n">
         <v>854.3531494140625</v>
       </c>
       <c r="E3" t="n">
-        <v>681.715087890625</v>
+        <v>681.7151489257812</v>
       </c>
       <c r="F3" t="n">
         <v>819.8139038085938</v>
@@ -603,7 +603,7 @@
         <v>861.6660766601562</v>
       </c>
       <c r="C6" t="n">
-        <v>722.4990234375</v>
+        <v>722.4990844726562</v>
       </c>
       <c r="D6" t="n">
         <v>924.827880859375</v>
@@ -813,13 +813,13 @@
         <v>928.7247924804688</v>
       </c>
       <c r="C13" t="n">
-        <v>258.4995727539062</v>
+        <v>258.4996032714844</v>
       </c>
       <c r="D13" t="n">
         <v>1012.2705078125</v>
       </c>
       <c r="E13" t="n">
-        <v>179.2877655029297</v>
+        <v>179.2877807617188</v>
       </c>
       <c r="F13" t="n">
         <v>970.4976806640625</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>363.8838500976562</v>
+        <v>363.8838195800781</v>
       </c>
       <c r="B14" t="n">
         <v>951.9607543945312</v>
@@ -930,16 +930,16 @@
         <v>0.3281068801879883</v>
       </c>
       <c r="B17" t="n">
-        <v>960.374267578125</v>
+        <v>960.3743896484375</v>
       </c>
       <c r="C17" t="n">
-        <v>101.1417388916016</v>
+        <v>101.141716003418</v>
       </c>
       <c r="D17" t="n">
-        <v>1387.754028320312</v>
+        <v>1387.75390625</v>
       </c>
       <c r="E17" t="n">
-        <v>50.73492431640625</v>
+        <v>50.73491287231445</v>
       </c>
       <c r="F17" t="n">
         <v>1174.064208984375</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>693.9693603515625</v>
+        <v>693.9694213867188</v>
       </c>
       <c r="B18" t="n">
-        <v>1051.880737304688</v>
+        <v>1051.880615234375</v>
       </c>
       <c r="C18" t="n">
-        <v>968.1951293945312</v>
+        <v>968.1951904296875</v>
       </c>
       <c r="D18" t="n">
         <v>1324.50732421875</v>
@@ -972,7 +972,7 @@
         <v>831.082275390625</v>
       </c>
       <c r="F18" t="n">
-        <v>1188.194091796875</v>
+        <v>1188.193969726562</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>

--- a/data/output/seat_status_updated_classroom_image5.xlsx
+++ b/data/output/seat_status_updated_classroom_image5.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1041.226684570312</v>
+        <v>1041.171752929688</v>
       </c>
       <c r="B2" t="n">
-        <v>801.8980102539062</v>
+        <v>801.8150024414062</v>
       </c>
       <c r="C2" t="n">
-        <v>1125.039306640625</v>
+        <v>1124.937133789062</v>
       </c>
       <c r="D2" t="n">
-        <v>835.1737670898438</v>
+        <v>835.1107788085938</v>
       </c>
       <c r="E2" t="n">
-        <v>1083.133056640625</v>
+        <v>1083.054443359375</v>
       </c>
       <c r="F2" t="n">
-        <v>818.535888671875</v>
+        <v>818.462890625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>660.105712890625</v>
+        <v>660.2178344726562</v>
       </c>
       <c r="B3" t="n">
-        <v>785.274658203125</v>
+        <v>785.2796020507812</v>
       </c>
       <c r="C3" t="n">
-        <v>703.3245849609375</v>
+        <v>703.3880004882812</v>
       </c>
       <c r="D3" t="n">
-        <v>854.3531494140625</v>
+        <v>854.1613159179688</v>
       </c>
       <c r="E3" t="n">
-        <v>681.7151489257812</v>
+        <v>681.8029174804688</v>
       </c>
       <c r="F3" t="n">
-        <v>819.8139038085938</v>
+        <v>819.720458984375</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1152.887817382812</v>
+        <v>1152.943603515625</v>
       </c>
       <c r="B4" t="n">
-        <v>806.2091674804688</v>
+        <v>806.198974609375</v>
       </c>
       <c r="C4" t="n">
-        <v>1199.439697265625</v>
+        <v>1199.453491210938</v>
       </c>
       <c r="D4" t="n">
-        <v>840.1294555664062</v>
+        <v>840.1604614257812</v>
       </c>
       <c r="E4" t="n">
-        <v>1176.163818359375</v>
+        <v>1176.198486328125</v>
       </c>
       <c r="F4" t="n">
-        <v>823.1693115234375</v>
+        <v>823.1796875</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>895.7696533203125</v>
+        <v>896.0135498046875</v>
       </c>
       <c r="B5" t="n">
-        <v>842.2644653320312</v>
+        <v>842.2984008789062</v>
       </c>
       <c r="C5" t="n">
-        <v>1034.665771484375</v>
+        <v>1034.82080078125</v>
       </c>
       <c r="D5" t="n">
-        <v>901.8157348632812</v>
+        <v>901.73291015625</v>
       </c>
       <c r="E5" t="n">
-        <v>965.2177124023438</v>
+        <v>965.4171752929688</v>
       </c>
       <c r="F5" t="n">
-        <v>872.0401000976562</v>
+        <v>872.015625</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>626.359130859375</v>
+        <v>626.2805786132812</v>
       </c>
       <c r="B6" t="n">
-        <v>861.6660766601562</v>
+        <v>861.5908203125</v>
       </c>
       <c r="C6" t="n">
-        <v>722.4990844726562</v>
+        <v>722.5261840820312</v>
       </c>
       <c r="D6" t="n">
-        <v>924.827880859375</v>
+        <v>924.946044921875</v>
       </c>
       <c r="E6" t="n">
-        <v>674.4290771484375</v>
+        <v>674.4033813476562</v>
       </c>
       <c r="F6" t="n">
-        <v>893.2469482421875</v>
+        <v>893.2684326171875</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>742.7202758789062</v>
+        <v>742.1142578125</v>
       </c>
       <c r="B7" t="n">
-        <v>841.2198486328125</v>
+        <v>841.1279907226562</v>
       </c>
       <c r="C7" t="n">
-        <v>857.8430786132812</v>
+        <v>857.96875</v>
       </c>
       <c r="D7" t="n">
-        <v>950.74853515625</v>
+        <v>950.9415283203125</v>
       </c>
       <c r="E7" t="n">
-        <v>800.2816772460938</v>
+        <v>800.04150390625</v>
       </c>
       <c r="F7" t="n">
-        <v>895.9841918945312</v>
+        <v>896.0347900390625</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1083.734497070312</v>
+        <v>1083.726440429688</v>
       </c>
       <c r="B8" t="n">
-        <v>869.0485229492188</v>
+        <v>868.9179077148438</v>
       </c>
       <c r="C8" t="n">
         <v>1200</v>
       </c>
       <c r="D8" t="n">
-        <v>925.6650390625</v>
+        <v>925.66796875</v>
       </c>
       <c r="E8" t="n">
-        <v>1141.8671875</v>
+        <v>1141.86328125</v>
       </c>
       <c r="F8" t="n">
-        <v>897.3568115234375</v>
+        <v>897.29296875</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>371.9775390625</v>
+        <v>371.9169311523438</v>
       </c>
       <c r="B9" t="n">
-        <v>857.0438842773438</v>
+        <v>857.1574096679688</v>
       </c>
       <c r="C9" t="n">
-        <v>457.4068298339844</v>
+        <v>457.62255859375</v>
       </c>
       <c r="D9" t="n">
-        <v>961.8951416015625</v>
+        <v>961.9175415039062</v>
       </c>
       <c r="E9" t="n">
-        <v>414.6921997070312</v>
+        <v>414.7697448730469</v>
       </c>
       <c r="F9" t="n">
-        <v>909.469482421875</v>
+        <v>909.5374755859375</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>607.4754028320312</v>
+        <v>608.155029296875</v>
       </c>
       <c r="B10" t="n">
-        <v>862.365478515625</v>
+        <v>862.0963745117188</v>
       </c>
       <c r="C10" t="n">
-        <v>722.8684692382812</v>
+        <v>722.943115234375</v>
       </c>
       <c r="D10" t="n">
-        <v>995.0921020507812</v>
+        <v>994.71435546875</v>
       </c>
       <c r="E10" t="n">
-        <v>665.1719360351562</v>
+        <v>665.549072265625</v>
       </c>
       <c r="F10" t="n">
-        <v>928.728759765625</v>
+        <v>928.4053955078125</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>817.5060424804688</v>
+        <v>817.5888671875</v>
       </c>
       <c r="B11" t="n">
-        <v>893.029541015625</v>
+        <v>893.0639038085938</v>
       </c>
       <c r="C11" t="n">
-        <v>948.3336791992188</v>
+        <v>948.417724609375</v>
       </c>
       <c r="D11" t="n">
-        <v>985.7256469726562</v>
+        <v>984.5987548828125</v>
       </c>
       <c r="E11" t="n">
-        <v>882.9198608398438</v>
+        <v>883.0032958984375</v>
       </c>
       <c r="F11" t="n">
-        <v>939.3775634765625</v>
+        <v>938.831298828125</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>281.5087585449219</v>
+        <v>281.396240234375</v>
       </c>
       <c r="B12" t="n">
-        <v>889.3447875976562</v>
+        <v>889.296630859375</v>
       </c>
       <c r="C12" t="n">
-        <v>378.5600891113281</v>
+        <v>378.6860961914062</v>
       </c>
       <c r="D12" t="n">
-        <v>996.7391967773438</v>
+        <v>996.91064453125</v>
       </c>
       <c r="E12" t="n">
-        <v>330.034423828125</v>
+        <v>330.0411682128906</v>
       </c>
       <c r="F12" t="n">
-        <v>943.0419921875</v>
+        <v>943.1036376953125</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100.0759506225586</v>
+        <v>99.92143249511719</v>
       </c>
       <c r="B13" t="n">
-        <v>928.7247924804688</v>
+        <v>928.738037109375</v>
       </c>
       <c r="C13" t="n">
-        <v>258.4996032714844</v>
+        <v>258.3175048828125</v>
       </c>
       <c r="D13" t="n">
-        <v>1012.2705078125</v>
+        <v>1012.224670410156</v>
       </c>
       <c r="E13" t="n">
-        <v>179.2877807617188</v>
+        <v>179.1194763183594</v>
       </c>
       <c r="F13" t="n">
-        <v>970.4976806640625</v>
+        <v>970.4813232421875</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>363.8838195800781</v>
+        <v>365.7415466308594</v>
       </c>
       <c r="B14" t="n">
-        <v>951.9607543945312</v>
+        <v>952.0056762695312</v>
       </c>
       <c r="C14" t="n">
-        <v>513.0068969726562</v>
+        <v>513.001220703125</v>
       </c>
       <c r="D14" t="n">
-        <v>1143.899169921875</v>
+        <v>1144.005737304688</v>
       </c>
       <c r="E14" t="n">
-        <v>438.4453735351562</v>
+        <v>439.3713989257812</v>
       </c>
       <c r="F14" t="n">
-        <v>1047.929931640625</v>
+        <v>1048.005737304688</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -867,22 +867,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>902.3108520507812</v>
+        <v>902.3634033203125</v>
       </c>
       <c r="B15" t="n">
-        <v>935.0695190429688</v>
+        <v>935.1091918945312</v>
       </c>
       <c r="C15" t="n">
-        <v>1111.111206054688</v>
+        <v>1111.0810546875</v>
       </c>
       <c r="D15" t="n">
-        <v>1252.595703125</v>
+        <v>1252.352783203125</v>
       </c>
       <c r="E15" t="n">
-        <v>1006.711059570312</v>
+        <v>1006.722229003906</v>
       </c>
       <c r="F15" t="n">
-        <v>1093.832641601562</v>
+        <v>1093.73095703125</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -897,22 +897,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>464.0460205078125</v>
+        <v>463.6892395019531</v>
       </c>
       <c r="B16" t="n">
-        <v>986.107421875</v>
+        <v>986.0537719726562</v>
       </c>
       <c r="C16" t="n">
-        <v>714.3184814453125</v>
+        <v>714.2246704101562</v>
       </c>
       <c r="D16" t="n">
-        <v>1276.921142578125</v>
+        <v>1277.0400390625</v>
       </c>
       <c r="E16" t="n">
-        <v>589.1822509765625</v>
+        <v>588.9569702148438</v>
       </c>
       <c r="F16" t="n">
-        <v>1131.514282226562</v>
+        <v>1131.546875</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3281068801879883</v>
+        <v>0.3357934951782227</v>
       </c>
       <c r="B17" t="n">
-        <v>960.3743896484375</v>
+        <v>960.169677734375</v>
       </c>
       <c r="C17" t="n">
-        <v>101.141716003418</v>
+        <v>101.2079010009766</v>
       </c>
       <c r="D17" t="n">
-        <v>1387.75390625</v>
+        <v>1388.482055664062</v>
       </c>
       <c r="E17" t="n">
-        <v>50.73491287231445</v>
+        <v>50.77184677124023</v>
       </c>
       <c r="F17" t="n">
-        <v>1174.064208984375</v>
+        <v>1174.325927734375</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -957,22 +957,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>693.9694213867188</v>
+        <v>694.459228515625</v>
       </c>
       <c r="B18" t="n">
-        <v>1051.880615234375</v>
+        <v>1051.941772460938</v>
       </c>
       <c r="C18" t="n">
-        <v>968.1951904296875</v>
+        <v>968.2086181640625</v>
       </c>
       <c r="D18" t="n">
-        <v>1324.50732421875</v>
+        <v>1324.140502929688</v>
       </c>
       <c r="E18" t="n">
-        <v>831.082275390625</v>
+        <v>831.3339233398438</v>
       </c>
       <c r="F18" t="n">
-        <v>1188.193969726562</v>
+        <v>1188.041137695312</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -987,22 +987,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1077.370849609375</v>
+        <v>1077.361938476562</v>
       </c>
       <c r="B19" t="n">
-        <v>1187.448974609375</v>
+        <v>1187.444091796875</v>
       </c>
       <c r="C19" t="n">
-        <v>1199.805908203125</v>
+        <v>1199.811279296875</v>
       </c>
       <c r="D19" t="n">
-        <v>1440.29052734375</v>
+        <v>1440.423217773438</v>
       </c>
       <c r="E19" t="n">
-        <v>1138.58837890625</v>
+        <v>1138.586669921875</v>
       </c>
       <c r="F19" t="n">
-        <v>1313.869750976562</v>
+        <v>1313.93359375</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1017,22 +1017,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>611.8169555664062</v>
+        <v>611.7901611328125</v>
       </c>
       <c r="B20" t="n">
-        <v>1558.099243164062</v>
+        <v>1558.094116210938</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3355102539062</v>
+        <v>851.3016967773438</v>
       </c>
       <c r="D20" t="n">
-        <v>1599.9921875</v>
+        <v>1600</v>
       </c>
       <c r="E20" t="n">
-        <v>731.5762329101562</v>
+        <v>731.5458984375</v>
       </c>
       <c r="F20" t="n">
-        <v>1579.045654296875</v>
+        <v>1579.047119140625</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
